--- a/CCNA ABBEnEn.xlsx
+++ b/CCNA ABBEnEn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84B9760A-A3F4-4D21-88AC-12DD79DCCD07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="18045" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="372">
   <si>
     <t>CCNA_ABBEnEn</t>
   </si>
@@ -1129,13 +1130,19 @@
   </si>
   <si>
     <t>intrustion detection system</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>fiels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,21 +1549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1635,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1690,7 +1697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1701,7 +1708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1734,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1778,7 +1785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1800,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1811,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1833,7 +1840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1844,7 +1851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1866,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1899,7 +1906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1910,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -1954,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -1965,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -2085,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -2113,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -2127,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -2169,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
@@ -2281,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
@@ -2295,7 +2302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -2309,7 +2316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
@@ -2323,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
@@ -2351,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -2365,7 +2372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" s="1" t="s">
         <v>141</v>
       </c>
@@ -2435,7 +2442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
@@ -2449,7 +2456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -2477,7 +2484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75" s="1" t="s">
         <v>149</v>
       </c>
@@ -2488,7 +2495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
@@ -2510,7 +2517,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
@@ -2554,7 +2561,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A82" s="1" t="s">
         <v>163</v>
       </c>
@@ -2565,7 +2572,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A84" s="1" t="s">
         <v>167</v>
       </c>
@@ -2587,7 +2594,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" s="1" t="s">
         <v>169</v>
       </c>
@@ -2598,7 +2605,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
@@ -2609,7 +2616,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A87" s="1" t="s">
         <v>173</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
@@ -2631,7 +2638,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
@@ -2642,7 +2649,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A90" s="1" t="s">
         <v>179</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" s="1" t="s">
         <v>181</v>
       </c>
@@ -2664,7 +2671,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A92" s="1" t="s">
         <v>183</v>
       </c>
@@ -2675,7 +2682,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A93" s="1" t="s">
         <v>185</v>
       </c>
@@ -2686,7 +2693,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A94" s="1" t="s">
         <v>187</v>
       </c>
@@ -2697,7 +2704,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A95" s="1" t="s">
         <v>125</v>
       </c>
@@ -2708,7 +2715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A96" s="1" t="s">
         <v>127</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A97" s="1" t="s">
         <v>129</v>
       </c>
@@ -2730,7 +2737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A98" s="1" t="s">
         <v>131</v>
       </c>
@@ -2741,7 +2748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A99" s="1" t="s">
         <v>189</v>
       </c>
@@ -2752,7 +2759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A100" s="1" t="s">
         <v>191</v>
       </c>
@@ -2763,7 +2770,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A101" s="1" t="s">
         <v>135</v>
       </c>
@@ -2774,7 +2781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A102" s="1" t="s">
         <v>137</v>
       </c>
@@ -2785,7 +2792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" s="1" t="s">
         <v>139</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A104" s="1" t="s">
         <v>145</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A105" s="1" t="s">
         <v>147</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A106" s="1" t="s">
         <v>193</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A107" s="1" t="s">
         <v>151</v>
       </c>
@@ -2840,7 +2847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A108" s="1" t="s">
         <v>195</v>
       </c>
@@ -2851,7 +2858,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" s="1" t="s">
         <v>155</v>
       </c>
@@ -2862,7 +2869,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A110" s="1" t="s">
         <v>159</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A112" s="1" t="s">
         <v>163</v>
       </c>
@@ -2895,7 +2902,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A113" s="1" t="s">
         <v>165</v>
       </c>
@@ -2906,7 +2913,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A114" s="1" t="s">
         <v>167</v>
       </c>
@@ -2917,7 +2924,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A115" s="1" t="s">
         <v>169</v>
       </c>
@@ -2928,7 +2935,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A116" s="1" t="s">
         <v>171</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A117" s="1" t="s">
         <v>173</v>
       </c>
@@ -2950,7 +2957,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A118" s="1" t="s">
         <v>175</v>
       </c>
@@ -2961,7 +2968,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A119" s="1" t="s">
         <v>177</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A120" s="1" t="s">
         <v>197</v>
       </c>
@@ -2983,7 +2990,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A121" s="1" t="s">
         <v>199</v>
       </c>
@@ -2994,7 +3001,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A122" s="1" t="s">
         <v>201</v>
       </c>
@@ -3005,7 +3012,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A123" s="1" t="s">
         <v>181</v>
       </c>
@@ -3016,7 +3023,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A124" s="1" t="s">
         <v>183</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A125" s="1" t="s">
         <v>185</v>
       </c>
@@ -3038,7 +3045,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A126" s="1" t="s">
         <v>203</v>
       </c>
@@ -3049,7 +3056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>205</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>207</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -3082,7 +3089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>211</v>
       </c>
@@ -3093,7 +3100,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -3104,7 +3111,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>217</v>
       </c>
@@ -3120,7 +3127,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>219</v>
       </c>
@@ -3128,7 +3135,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>221</v>
       </c>
@@ -3136,7 +3143,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>223</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>225</v>
       </c>
@@ -3152,7 +3159,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>227</v>
       </c>
@@ -3160,7 +3167,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -3168,7 +3175,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>231</v>
       </c>
@@ -3176,7 +3183,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>233</v>
       </c>
@@ -3184,7 +3191,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>235</v>
       </c>
@@ -3192,7 +3199,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>237</v>
       </c>
@@ -3200,7 +3207,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>239</v>
       </c>
@@ -3208,7 +3215,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>241</v>
       </c>
@@ -3216,7 +3223,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>243</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>245</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>247</v>
       </c>
@@ -3240,7 +3247,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>249</v>
       </c>
@@ -3248,7 +3255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>251</v>
       </c>
@@ -3256,7 +3263,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>253</v>
       </c>
@@ -3264,7 +3271,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>255</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>257</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>259</v>
       </c>
@@ -3288,7 +3295,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>261</v>
       </c>
@@ -3296,7 +3303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>263</v>
       </c>
@@ -3304,7 +3311,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>264</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>266</v>
       </c>
@@ -3320,7 +3327,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>268</v>
       </c>
@@ -3328,7 +3335,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>270</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -3344,7 +3351,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>274</v>
       </c>
@@ -3352,7 +3359,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>276</v>
       </c>
@@ -3360,7 +3367,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>278</v>
       </c>
@@ -3368,7 +3375,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>280</v>
       </c>
@@ -3376,7 +3383,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>282</v>
       </c>
@@ -3384,7 +3391,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>284</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>286</v>
       </c>
@@ -3400,7 +3407,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>288</v>
       </c>
@@ -3408,7 +3415,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>290</v>
       </c>
@@ -3416,7 +3423,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>292</v>
       </c>
@@ -3424,7 +3431,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>294</v>
       </c>
@@ -3432,7 +3439,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>296</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>298</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>300</v>
       </c>
@@ -3456,7 +3463,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>302</v>
       </c>
@@ -3464,7 +3471,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>304</v>
       </c>
@@ -3472,7 +3479,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>306</v>
       </c>
@@ -3480,7 +3487,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>308</v>
       </c>
@@ -3488,7 +3495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>310</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>312</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>314</v>
       </c>
@@ -3512,7 +3519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>316</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>318</v>
       </c>
@@ -3528,7 +3535,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>320</v>
       </c>
@@ -3536,7 +3543,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>322</v>
       </c>
@@ -3544,7 +3551,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>324</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>326</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>328</v>
       </c>
@@ -3568,7 +3575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>330</v>
       </c>
@@ -3576,7 +3583,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>332</v>
       </c>
@@ -3584,7 +3591,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>334</v>
       </c>
@@ -3592,7 +3599,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>336</v>
       </c>
@@ -3600,7 +3607,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>338</v>
       </c>
@@ -3608,7 +3615,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>340</v>
       </c>
@@ -3616,7 +3623,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>342</v>
       </c>
@@ -3624,7 +3631,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>344</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>346</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>348</v>
       </c>
@@ -3648,7 +3655,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>350</v>
       </c>
@@ -3656,7 +3663,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>352</v>
       </c>
@@ -3664,7 +3671,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>354</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>356</v>
       </c>
@@ -3680,7 +3687,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>358</v>
       </c>
@@ -3688,7 +3695,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>360</v>
       </c>
@@ -3696,7 +3703,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>362</v>
       </c>
@@ -3704,7 +3711,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>364</v>
       </c>
@@ -3712,7 +3719,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>366</v>
       </c>
@@ -3720,12 +3727,20 @@
         <v>367</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A209" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C209" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A210" t="s">
+        <v>370</v>
+      </c>
+      <c r="C210" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
